--- a/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T10:22:43+10:00</t>
+    <t>2023-06-27T22:42:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="367">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T22:42:19-04:00</t>
+    <t>2023-09-01T14:45:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1621,16 +1625,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1638,10 +1642,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1652,7 +1656,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1661,19 +1665,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1723,13 +1727,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1752,10 +1756,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1766,7 +1770,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1775,16 +1779,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1835,19 +1839,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1864,10 +1868,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1878,28 +1882,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1949,19 +1953,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1978,10 +1982,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1992,7 +1996,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2004,16 +2008,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2039,13 +2043,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2063,19 +2067,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2092,21 +2096,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2118,16 +2122,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2177,25 +2181,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2206,14 +2210,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2232,16 +2236,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2291,7 +2295,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2309,7 +2313,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2320,14 +2324,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2346,16 +2350,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2405,7 +2409,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2417,13 +2421,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2434,14 +2438,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2454,25 +2458,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2521,7 +2525,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2533,13 +2537,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2550,10 +2554,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2573,20 +2577,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2635,7 +2639,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2647,27 +2651,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2678,7 +2682,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2687,105 +2691,105 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2796,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -2805,20 +2809,20 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -2867,39 +2871,39 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2910,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2922,13 +2926,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2979,13 +2983,13 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -2997,7 +3001,7 @@
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3008,14 +3012,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3034,16 +3038,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3081,19 +3085,19 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3105,13 +3109,13 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3122,10 +3126,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3136,7 +3140,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3145,19 +3149,19 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3207,25 +3211,25 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3236,10 +3240,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3250,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3259,26 +3263,26 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>38</v>
@@ -3323,25 +3327,25 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3352,10 +3356,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3363,28 +3367,28 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3435,25 +3439,25 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3464,10 +3468,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3478,7 +3482,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3490,13 +3494,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3547,13 +3551,13 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
@@ -3565,7 +3569,7 @@
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -3576,14 +3580,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3602,16 +3606,16 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3649,19 +3653,19 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3673,13 +3677,13 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -3690,10 +3694,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3704,28 +3708,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3775,25 +3779,25 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -3804,10 +3808,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3818,7 +3822,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3827,19 +3831,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3865,13 +3869,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -3889,25 +3893,25 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
@@ -3918,10 +3922,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3932,7 +3936,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3941,19 +3945,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4003,25 +4007,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4032,10 +4036,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4046,7 +4050,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4055,19 +4059,19 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4117,25 +4121,25 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4146,10 +4150,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4160,25 +4164,25 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4229,25 +4233,25 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4258,10 +4262,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4272,7 +4276,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4284,13 +4288,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4341,13 +4345,13 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -4359,7 +4363,7 @@
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4370,14 +4374,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4396,16 +4400,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4443,19 +4447,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4467,13 +4471,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4484,10 +4488,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4498,28 +4502,28 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4569,25 +4573,25 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4598,10 +4602,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4612,7 +4616,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4621,19 +4625,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4659,13 +4663,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -4683,25 +4687,25 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
@@ -4712,10 +4716,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4726,7 +4730,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4735,19 +4739,19 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4797,25 +4801,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -4826,10 +4830,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4840,7 +4844,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4849,19 +4853,19 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4911,25 +4915,25 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -4940,10 +4944,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4963,22 +4967,22 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5003,13 +5007,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5027,7 +5031,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5039,16 +5043,16 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5056,10 +5060,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5067,28 +5071,28 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5115,13 +5119,13 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
@@ -5139,7 +5143,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5151,16 +5155,16 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5168,10 +5172,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5182,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5194,13 +5198,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5251,13 +5255,13 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
@@ -5269,7 +5273,7 @@
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5280,14 +5284,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5306,16 +5310,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5353,19 +5357,19 @@
         <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5377,13 +5381,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5394,10 +5398,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5417,22 +5421,22 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5481,7 +5485,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5493,13 +5497,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5510,10 +5514,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5524,7 +5528,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5536,13 +5540,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5593,13 +5597,13 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
@@ -5611,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -5622,14 +5626,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5648,16 +5652,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5695,19 +5699,19 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5719,13 +5723,13 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -5736,10 +5740,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5750,7 +5754,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5759,22 +5763,22 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -5823,25 +5827,25 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -5852,10 +5856,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5866,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -5875,19 +5879,19 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5937,25 +5941,25 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -5966,10 +5970,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5980,7 +5984,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -5989,20 +5993,20 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6027,13 +6031,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6051,25 +6055,25 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6080,10 +6084,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6094,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6103,20 +6107,20 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6165,25 +6169,25 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6194,10 +6198,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6208,7 +6212,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6217,22 +6221,22 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6281,25 +6285,25 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6310,10 +6314,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6324,7 +6328,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6333,22 +6337,22 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6397,25 +6401,25 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6426,10 +6430,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6440,25 +6444,25 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6509,7 +6513,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6521,27 +6525,27 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6552,7 +6556,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6564,13 +6568,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6621,13 +6625,13 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
@@ -6639,7 +6643,7 @@
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -6650,14 +6654,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6676,16 +6680,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6723,19 +6727,19 @@
         <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6747,13 +6751,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -6764,10 +6768,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6778,28 +6782,28 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6849,25 +6853,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -6878,10 +6882,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6892,7 +6896,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -6901,19 +6905,19 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6939,13 +6943,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -6963,25 +6967,25 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -6992,10 +6996,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7006,7 +7010,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7015,19 +7019,19 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7077,25 +7081,25 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7106,10 +7110,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7120,7 +7124,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7129,19 +7133,19 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7191,25 +7195,25 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7220,10 +7224,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7246,13 +7250,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7303,7 +7307,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7315,13 +7319,13 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7332,10 +7336,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7355,20 +7359,20 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7417,7 +7421,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7429,13 +7433,13 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7446,10 +7450,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7472,16 +7476,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7531,7 +7535,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7543,13 +7547,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7560,10 +7564,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7574,7 +7578,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7586,13 +7590,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7643,13 +7647,13 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
@@ -7661,7 +7665,7 @@
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7672,14 +7676,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7698,16 +7702,16 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7757,7 +7761,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7769,13 +7773,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -7786,14 +7790,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7806,25 +7810,25 @@
         <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -7873,7 +7877,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -7885,13 +7889,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -7902,10 +7906,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7928,13 +7932,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7961,13 +7965,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -7985,7 +7989,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -7997,13 +8001,13 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8014,10 +8018,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8028,7 +8032,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8040,13 +8044,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8097,25 +8101,25 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8126,10 +8130,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8140,7 +8144,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8152,16 +8156,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8211,25 +8215,25 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
@@ -8240,10 +8244,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8254,7 +8258,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8266,16 +8270,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8325,25 +8329,25 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8354,10 +8358,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8380,13 +8384,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8437,7 +8441,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8449,13 +8453,13 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
@@ -8466,10 +8470,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8480,7 +8484,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8492,13 +8496,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8549,13 +8553,13 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
@@ -8567,7 +8571,7 @@
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -8578,14 +8582,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8604,16 +8608,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8663,7 +8667,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -8675,13 +8679,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -8692,14 +8696,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8712,25 +8716,25 @@
         <v>38</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -8779,7 +8783,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -8791,13 +8795,13 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -8808,10 +8812,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8819,10 +8823,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -8834,13 +8838,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8891,25 +8895,25 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -8920,10 +8924,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8934,7 +8938,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -8946,13 +8950,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9003,25 +9007,25 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9032,10 +9036,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9046,7 +9050,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9058,13 +9062,13 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9115,25 +9119,25 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9144,10 +9148,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9170,17 +9174,17 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9229,7 +9233,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9241,13 +9245,13 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>

--- a/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.2</t>
+    <t>1.8.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:45:29-04:00</t>
+    <t>2023-10-31T17:56:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -529,7 +529,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
     <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T12:29:21-03:00</t>
+    <t>2023-11-13T14:28:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:28:19-03:00</t>
+    <t>2023-11-14T10:49:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
+++ b/clcore/temp/pages/StructureDefinition-CoreEspecialidadCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:56:54-03:00</t>
+    <t>2023-11-02T09:33:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
